--- a/exports/detailed_report.xlsx
+++ b/exports/detailed_report.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,16 +482,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-29 09:37:32</t>
+          <t>2025-05-01 16:33:03</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>JPG</t>
+          <t>MP4</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -499,7 +499,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>c7747d7a-e63f-4ed3-9f51-e452ccbd0808.jpg</t>
+          <t>fdab58ce-afab-4d51-905b-2b521eb06a73.mp4</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -509,17 +509,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>/exports/c7747d7a-e63f-4ed3-9f51-e452ccbd0808.jpg</t>
+          <t>/exports/fdab58ce-afab-4d51-905b-2b521eb06a73.mp4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-04-29 09:36:40</t>
+          <t>2025-05-01 16:26:26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>dfd35f7e-0d43-4eff-ada4-d26c1434b6a4.jpg</t>
+          <t>0b9079e1-cd79-45a5-80da-a61706ab7d39.jpg</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -542,22 +542,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>/exports/dfd35f7e-0d43-4eff-ada4-d26c1434b6a4.jpg</t>
+          <t>/exports/0b9079e1-cd79-45a5-80da-a61706ab7d39.jpg</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-04-29 09:36:26</t>
+          <t>2025-04-29 14:41:31</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GIF</t>
+          <t>MP4</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -565,7 +565,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>d765e399-8a5c-4503-b1d1-f6718b3ac720.gif</t>
+          <t>3a20fc6c-8b76-47fd-89fd-0055a76b88a8.mp4</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -575,38 +575,137 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>/exports/d765e399-8a5c-4503-b1d1-f6718b3ac720.gif</t>
+          <t>/exports/3a20fc6c-8b76-47fd-89fd-0055a76b88a8.mp4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2025-04-29 09:37:32</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>JPG</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>c7747d7a-e63f-4ed3-9f51-e452ccbd0808.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Успешно</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>/exports/c7747d7a-e63f-4ed3-9f51-e452ccbd0808.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-04-29 09:36:40</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>JPG</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>dfd35f7e-0d43-4eff-ada4-d26c1434b6a4.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Успешно</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>/exports/dfd35f7e-0d43-4eff-ada4-d26c1434b6a4.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-04-29 09:36:26</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>GIF</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>d765e399-8a5c-4503-b1d1-f6718b3ac720.gif</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Успешно</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>/exports/d765e399-8a5c-4503-b1d1-f6718b3ac720.gif</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2025-04-29 09:35:30</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>MP4</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>a2b0525d-b82f-4268-8bed-c4976e873c21.mp4</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Успешно</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>/exports/a2b0525d-b82f-4268-8bed-c4976e873c21.mp4</t>
         </is>
@@ -667,10 +766,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -682,7 +781,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-04-29 09:37:32</t>
+          <t>2025-05-01 16:33:03</t>
         </is>
       </c>
     </row>
